--- a/data/trans_orig/P1435_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Estudios-trans_orig.xlsx
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>99,37%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>99,32%</t>
+          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,39%</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>93,57%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,7%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>9,1%</t>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>95,65%</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>4,58%</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>95,43%</t>
+          <t>95,42%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>96,77%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/P1435_2012-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2012-Estudios-trans_orig.xlsx
@@ -779,12 +779,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -800,12 +800,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -848,12 +848,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -869,12 +869,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>98,16%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>99,33%</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="M9" s="2" t="n">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,44%</t>
         </is>
       </c>
     </row>
@@ -1128,12 +1128,12 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="n">
@@ -1149,12 +1149,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,74%</t>
         </is>
       </c>
     </row>
@@ -1339,12 +1339,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,59%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1360,12 +1360,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>9,35%</t>
+          <t>9,59%</t>
         </is>
       </c>
     </row>
@@ -1408,12 +1408,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>90,65%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,47%</t>
         </is>
       </c>
     </row>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>4,53%</t>
         </is>
       </c>
     </row>
@@ -1688,12 +1688,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1709,12 +1709,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>95,42%</t>
+          <t>95,47%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>96,77%</t>
+          <t>96,8%</t>
         </is>
       </c>
     </row>
